--- a/menus/menus.xlsx
+++ b/menus/menus.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16880" tabRatio="500"/>
@@ -600,7 +600,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -911,7 +911,7 @@
         <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -979,7 +979,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:5">
